--- a/data/income_statement/1digit/size/C_IS_LARGE.xlsx
+++ b/data/income_statement/1digit/size/C_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>C-Manufacturing</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>C-Manufacturing</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,2078 +841,2346 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>339506842.2649699</v>
+        <v>332742415.85805</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>411267448.56325</v>
+        <v>403846103.25926</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>555367920.48376</v>
+        <v>550046735.5365601</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>610289116.49358</v>
+        <v>607636529.67873</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>643118793.0192701</v>
+        <v>639590054.5783899</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>733756138.79519</v>
+        <v>748878719.6711599</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>709261657.97358</v>
+        <v>853989341.35577</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>946566207.0472701</v>
+        <v>952702850.9279699</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1295306722.35752</v>
+        <v>1270661433.08242</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1536345328.49933</v>
+        <v>1513730177.01471</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1776414990.87957</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1756201731.81322</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>2149540247.293</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>235629912.45575</v>
+        <v>230362788.02834</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>297490482.46122</v>
+        <v>291739552.05513</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>397850665.92508</v>
+        <v>393675386.99191</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>440677405.4723</v>
+        <v>437667299.53047</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>462187090.03449</v>
+        <v>459322016.7826</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>526977906.6384</v>
+        <v>539872382.39999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>520743943.86945</v>
+        <v>619444611.47447</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>689308847.2349701</v>
+        <v>691341772.8423901</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>931351108.0455599</v>
+        <v>911814038.99524</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1032544670.20684</v>
+        <v>1014140066.00358</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1177806688.67063</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1163613578.2612</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1459552578.395</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>100253860.70081</v>
+        <v>98903561.29359001</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>109973633.09683</v>
+        <v>108441996.64373</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>151487211.20821</v>
+        <v>150475951.44049</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>163913857.25053</v>
+        <v>164462939.21092</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>174799176.76392</v>
+        <v>174274725.59124</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>199828608.59714</v>
+        <v>201982553.10873</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>181381943.63167</v>
+        <v>225472527.97683</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>245871071.08411</v>
+        <v>250301060.23355</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>348912081.81343</v>
+        <v>344384991.9142999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>484058120.29819</v>
+        <v>480344306.4998599</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>578233769.57924</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>572786409.91917</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>666738556.64</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>3623069.10841</v>
+        <v>3476066.536120001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>3803333.0052</v>
+        <v>3664554.5604</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>6030043.35047</v>
+        <v>5895397.104159999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>5697853.770749999</v>
+        <v>5506290.93734</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>6132526.220859999</v>
+        <v>5993312.20455</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>6949623.559649999</v>
+        <v>7023784.162439999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>7135770.47246</v>
+        <v>9072201.904469999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>11386288.72819</v>
+        <v>11060017.85203</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>15043532.49853</v>
+        <v>14462402.17288</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>19742537.9943</v>
+        <v>19245804.51127</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>20374532.6297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>19801743.63285</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>23249112.258</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>30207355.0262</v>
+        <v>29931862.94252</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>35956073.95292</v>
+        <v>35669671.86500001</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>41973828.57415999</v>
+        <v>41969453.74648999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>48576221.89938</v>
+        <v>49010885.42879</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>52299896.34527001</v>
+        <v>52543196.78593</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>59682841.49685</v>
+        <v>62111182.23705</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>52853083.48683001</v>
+        <v>72774670.69562</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>79867962.55518</v>
+        <v>83088586.28587</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>97252329.08791003</v>
+        <v>96483174.41828999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>121771208.33117</v>
+        <v>116145144.46013</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>140756599.27418</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>139819138.5731499</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>160949310.051</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>3287206.27941</v>
+        <v>3201607.653960001</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>3842147.900009999</v>
+        <v>3758701.13195</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>4494670.95962</v>
+        <v>4409312.32791</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>5462790.44281</v>
+        <v>5409369.78584</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>4716889.960570001</v>
+        <v>4637946.421560001</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>7238747.820329999</v>
+        <v>7156503.783089999</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>6714795.371709999</v>
+        <v>7158538.666329999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>9317235.0636</v>
+        <v>9088648.298689999</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>11441361.63462</v>
+        <v>10960030.29322</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>17204825.84307</v>
+        <v>11991494.77059</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>15057309.69464</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>14732165.41795</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>16973970.871</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>15128600.44252</v>
+        <v>14965273.64692</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>16995635.04525</v>
+        <v>16814860.4391</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>20122868.37960001</v>
+        <v>19892487.6469</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>21525656.04298</v>
+        <v>21509248.61954001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>23122040.33951</v>
+        <v>23247445.67806</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>26290018.95448</v>
+        <v>27375565.3675</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>29122191.69179</v>
+        <v>32773396.76777</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>34810925.34304</v>
+        <v>36086433.83864</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>43655651.64056001</v>
+        <v>43471881.43647</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>52284365.38343</v>
+        <v>51975983.5361</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>65659172.33114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>65110558.17643</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>76436485.23999999</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>11791548.30427</v>
+        <v>11764981.64164</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>15118291.00766</v>
+        <v>15096110.29395</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>17356289.23494</v>
+        <v>17667653.77168</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>21587775.41359</v>
+        <v>22092267.02341</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>24460966.04519</v>
+        <v>24657804.68631</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>26154074.72204</v>
+        <v>27579113.08646</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>17016096.42333</v>
+        <v>32842735.26152001</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>35739802.14854001</v>
+        <v>37913504.14854001</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>42155315.81273001</v>
+        <v>42051262.6886</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>52282017.10467</v>
+        <v>52177666.15343999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>60040117.24839999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>59976414.97877001</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>67538853.94</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>309299487.23877</v>
+        <v>302810552.91553</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>375311374.6103301</v>
+        <v>368176431.3942599</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>513394091.9096</v>
+        <v>508077281.7900699</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>561712894.5942</v>
+        <v>558625644.2499399</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>590818896.674</v>
+        <v>587046857.7924601</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>674073297.29834</v>
+        <v>686767537.4341099</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>656408574.48675</v>
+        <v>781214670.6601499</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>866698244.49209</v>
+        <v>869614264.6421</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1198054393.26961</v>
+        <v>1174178258.66413</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1414574120.16816</v>
+        <v>1397585032.55458</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1635658391.60539</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1616382593.24007</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1988590937.242</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>257745140.22785</v>
+        <v>252362436.29279</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>316172902.35435</v>
+        <v>310105554.1063301</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>431424570.3087699</v>
+        <v>427234766.49081</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>482730981.1873201</v>
+        <v>480535759.45871</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>496885978.08035</v>
+        <v>494110883.8472499</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>569123927.4255601</v>
+        <v>579242550.5499401</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>540793153.01753</v>
+        <v>646208108.51244</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>709619671.6899201</v>
+        <v>713241734.3978</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>982237097.1365999</v>
+        <v>963024873.90749</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1140946992.1718</v>
+        <v>1127875879.36931</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1363418782.25843</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1348417026.1318</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1604082038.197</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>215151434.12366</v>
+        <v>210913078.78619</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>269098071.92016</v>
+        <v>264580606.4533099</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>370668256.18555</v>
+        <v>367950209.53622</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>415171364.66988</v>
+        <v>414390924.4359599</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>429332020.94093</v>
+        <v>427320649.16992</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>487334212.97531</v>
+        <v>497869283.86621</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>460839640.69112</v>
+        <v>553878214.53557</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>602114854.5758901</v>
+        <v>606715149.11971</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>838234954.94013</v>
+        <v>823241766.42532</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>988013428.3541801</v>
+        <v>977943258.58514</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1195346637.38682</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1183077963.03111</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1382765414.356</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>32758662.01068</v>
+        <v>32173660.60202</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>36307691.46342</v>
+        <v>35490785.2477</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>46154854.27108999</v>
+        <v>45387815.08081</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>51800014.61992</v>
+        <v>51107028.78135999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>49793231.96998</v>
+        <v>49771138.11325001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>60809918.09346999</v>
+        <v>60867789.26214</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>58735262.58918</v>
+        <v>68268445.81964999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>78083646.95645998</v>
+        <v>78390024.24035001</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>110370672.75933</v>
+        <v>107842553.74676</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>109724026.70236</v>
+        <v>108049717.49408</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>116340106.30066</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>114726495.29513</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>160489248.701</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>6359748.38949</v>
+        <v>5873313.127270001</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>6729068.57095</v>
+        <v>6064072.22041</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>8820938.124269998</v>
+        <v>8105564.242989999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>9634240.240220001</v>
+        <v>8920801.797679998</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>11289305.60565</v>
+        <v>10433094.10971</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>13462904.38288</v>
+        <v>12863964.00608</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>15149152.61099</v>
+        <v>15865730.16095</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>19921193.39637</v>
+        <v>18635470.71459</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>19950592.95887</v>
+        <v>18452754.76588</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>27289254.39243</v>
+        <v>26176082.49802</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>31841360.99755</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>30888462.27021</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>37062234.924</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>3475295.70402</v>
+        <v>3402383.77731</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>4038070.399819999</v>
+        <v>3970090.18491</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>5780521.72786</v>
+        <v>5791177.63079</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>6125361.657299999</v>
+        <v>6117004.44371</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>6471419.563790001</v>
+        <v>6586002.454369999</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>7516891.973900001</v>
+        <v>7641513.415510001</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>6069097.12624</v>
+        <v>8195717.99627</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>9499976.761200001</v>
+        <v>9501090.323149998</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>13680876.47827</v>
+        <v>13487798.96953</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>15920282.72283</v>
+        <v>15706820.79207</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>19890677.5734</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>19724105.53535</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>23765140.216</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>51554347.01092</v>
+        <v>50448116.62274002</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>59138472.25598</v>
+        <v>58070877.28793</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>81969521.60083</v>
+        <v>80842515.29926002</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>78981913.40688001</v>
+        <v>78089884.79122999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>93932918.59365</v>
+        <v>92935973.94520999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>104949369.87278</v>
+        <v>107524986.88417</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>115615421.46922</v>
+        <v>135006562.14771</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>157078572.80217</v>
+        <v>156372530.2443</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>215817296.13301</v>
+        <v>211153384.75664</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>273627127.99636</v>
+        <v>269709153.18527</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>272239609.34696</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>267965567.10827</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>384508899.045</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>31841527.41395</v>
+        <v>30781712.02196</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>36501204.65842</v>
+        <v>35369064.58778</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>43854421.74805001</v>
+        <v>42707625.34748</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>49216888.75761001</v>
+        <v>48218462.18543001</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>53030360.66593</v>
+        <v>51937702.62838</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>60558401.0921</v>
+        <v>60685983.96336</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>61237599.94089</v>
+        <v>70453199.80875</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>81210659.41905999</v>
+        <v>80319964.59346001</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>98382701.93699001</v>
+        <v>95461865.15648998</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>108147902.08105</v>
+        <v>106131675.50273</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>130116509.83229</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>127751063.60082</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>151809230.891</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>930458.38088</v>
+        <v>910762.63309</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1062099.8241</v>
+        <v>1049716.63802</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>1309859.12695</v>
+        <v>1283941.06192</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1574250.05594</v>
+        <v>1554107.14251</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1895047.43384</v>
+        <v>1866276.36251</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1976146.67972</v>
+        <v>1971227.17388</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1758295.72147</v>
+        <v>2201081.47377</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>2648160.76048</v>
+        <v>2659194.289390001</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>3192240.29309</v>
+        <v>3146775.43756</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>3876335.210500001</v>
+        <v>3804901.41179</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>4947944.35015</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>4858191.010299999</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>5516364.111</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>18384354.38351</v>
+        <v>18021120.86592</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>21429841.60822999</v>
+        <v>21051714.43278</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>25661197.20864</v>
+        <v>25289694.83831</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>28570404.89802</v>
+        <v>28402027.45096001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>31171854.48126</v>
+        <v>30942291.30915</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>34779261.73128</v>
+        <v>35408433.67584</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>35294648.74386</v>
+        <v>40719514.33897</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>46397332.5167</v>
+        <v>46300901.35448</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>56047204.02202</v>
+        <v>54942266.34649</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>63007093.08991001</v>
+        <v>62210636.69634</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>74641776.38041</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>73689207.50685999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>87777257.264</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>12526714.64956</v>
+        <v>11849828.52295</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>14009263.22609</v>
+        <v>13267633.51698</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>16883365.41246</v>
+        <v>16133989.44725</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>19072233.80365</v>
+        <v>18262327.59196</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>19963458.75083</v>
+        <v>19129134.95672</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>23802992.6811</v>
+        <v>23306323.11364</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>24184655.47556</v>
+        <v>27532603.99601</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>32165166.14188</v>
+        <v>31359868.94959</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>39143257.62187999</v>
+        <v>37372823.37244</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>41264473.78064</v>
+        <v>40116137.3946</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>50526789.10173</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>49203665.08366001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>58515609.516</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>19712819.59697</v>
+        <v>19666404.60078</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>22637267.59756</v>
+        <v>22701812.70015</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>38115099.85277999</v>
+        <v>38134889.95178</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>29765024.64927</v>
+        <v>29871422.6058</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>40902557.92772</v>
+        <v>40998271.31682999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>44390968.78068</v>
+        <v>46839002.92081001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>54377821.52832999</v>
+        <v>64553362.33896001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>75867913.38311002</v>
+        <v>76052565.65084</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>117434594.19602</v>
+        <v>115691519.60015</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>165479225.91531</v>
+        <v>163577477.68254</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>142123099.51467</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>140214503.50745</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>232699668.154</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>20313514.99042</v>
+        <v>18860027.80892</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>22349357.82727</v>
+        <v>20587997.83715</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>31688017.66876</v>
+        <v>29849828.12077</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>29811295.96088</v>
+        <v>27897957.60673</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>39239107.35834</v>
+        <v>36871809.34311</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>52445506.24102</v>
+        <v>52963291.06867</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>69421789.29169001</v>
+        <v>77814884.1504</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>83220330.01398</v>
+        <v>79769244.2746</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>127008513.16115</v>
+        <v>122370809.68429</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>336706604.34919</v>
+        <v>325664379.53517</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>218012366.04693</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>205984578.12542</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>323001755.799</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>643432.3290700001</v>
+        <v>551593.3664500001</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>743343.6128700001</v>
+        <v>659590.07916</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>740880.7040700001</v>
+        <v>641985.2364399999</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>1062584.18192</v>
+        <v>974111.3254500001</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>1319938.84253</v>
+        <v>1175793.93609</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>1651625.19052</v>
+        <v>1596413.82303</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>976311.2582800001</v>
+        <v>1155642.70417</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>1548869.88147</v>
+        <v>1254849.00477</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>1733653.49452</v>
+        <v>1452246.59006</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>4618837.57079</v>
+        <v>4256643.969450001</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>9007619.601220001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>3858618.56337</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>4349158.633</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>756830.76202</v>
+        <v>427209.53734</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>717992.19161</v>
+        <v>317216.15504</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>829702.55798</v>
+        <v>325110.12602</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>1101459.75091</v>
+        <v>560430.0103000001</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>1204967.19044</v>
+        <v>676634.65691</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>1894523.62421</v>
+        <v>1731934.47738</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>1169304.74425</v>
+        <v>971332.0156800001</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>3080550.99991</v>
+        <v>1642413.10847</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>4965670.02388</v>
+        <v>3818017.57332</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>7488137.2215</v>
+        <v>4866152.965969999</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>9792723.196520001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>7072497.782930001</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>3078247.532</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1978001.49001</v>
+        <v>1856795.37896</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>2142857.85498</v>
+        <v>2011609.4249</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>2433805.61501</v>
+        <v>2305201.65738</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>2731870.6838</v>
+        <v>2603341.10268</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>2436744.1578</v>
+        <v>2333607.7537</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>3001562.55532</v>
+        <v>2970007.438690001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>3393478.01006</v>
+        <v>3974830.26236</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>4774363.6365</v>
+        <v>4767163.24842</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>7317679.790579998</v>
+        <v>7038992.54031</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>12429990.14712</v>
+        <v>11931144.15402</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>13688056.25091</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>13191548.12386</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>13146439.471</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>80499.23995999999</v>
+        <v>76002.70367</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>141164.89872</v>
+        <v>139336.83918</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>333883.79194</v>
+        <v>332199.8084400001</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>91405.7043</v>
+        <v>90843.41477999999</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>84058.24359999999</v>
+        <v>83427.03605000001</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>83139.13867999999</v>
+        <v>83875.14751000001</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>101636.29405</v>
+        <v>121991.17073</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>127146.03145</v>
+        <v>124592.51156</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>237412.51603</v>
+        <v>221612.9799</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>163218.91319</v>
+        <v>158605.65632</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>259455.22244</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>188347.64166</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>363358.336</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>588121.1046899999</v>
+        <v>523766.32498</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>530732.8165</v>
+        <v>459658.7199699999</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>813350.23557</v>
+        <v>666236.4307200001</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>583898.1183</v>
+        <v>469860.5514100001</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>584630.06024</v>
+        <v>525875.7999999999</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>550611.44437</v>
+        <v>472947.28299</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>569868.92607</v>
+        <v>501951.11774</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>888455.31431</v>
+        <v>787831.3276600001</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>736035.8590699999</v>
+        <v>663090.80773</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>893628.07675</v>
+        <v>886171.12553</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>1284019.5566</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1257463.32871</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>1679176.574</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>219785.45934</v>
+        <v>192849.27706</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>249487.1209</v>
+        <v>198610.04537</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>264228.7282900001</v>
+        <v>232632.42273</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>572494.2960500001</v>
+        <v>468055.4988999999</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1106375.64083</v>
+        <v>970912.43084</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1232957.67086</v>
+        <v>1223743.82423</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>882837.5584200001</v>
+        <v>880514.5019899999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1385644.024</v>
+        <v>1248605.26453</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>678372.41119</v>
+        <v>623502.7858499999</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>2314919.27962</v>
+        <v>2110986.91208</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>2491932.89912</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>2443937.20626</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>3972377.891</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>13227654.35863</v>
+        <v>12585209.79508</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>14853576.40263</v>
+        <v>14048797.42986</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>22452764.68113</v>
+        <v>21712093.67045</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>19452595.42659</v>
+        <v>18755976.9234</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>27940677.409</v>
+        <v>26816626.10493</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>38210060.38496</v>
+        <v>39202420.04189</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>56174656.01392001</v>
+        <v>63453077.75236</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>63123041.05288</v>
+        <v>61684726.44425</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>101428499.71246</v>
+        <v>99054861.63730998</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>293365268.45231</v>
+        <v>286511045.1706001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>166726404.37376</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>163612376.95381</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>279494299.385</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>243439.0046</v>
+        <v>232615.0214</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>197105.2146</v>
+        <v>188600.32628</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>232489.26743</v>
+        <v>226947.79658</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>269835.1833799999</v>
+        <v>270863.90653</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>469462.7375</v>
+        <v>458511.02916</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>821552.0206400001</v>
+        <v>820324.59146</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>881827.75226</v>
+        <v>942489.62951</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>1250367.98311</v>
+        <v>1250028.00771</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>1410371.70646</v>
+        <v>1384242.47569</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>2234165.17026</v>
+        <v>2193295.78513</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>2824041.11787</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>2789530.92945</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>1831926.781</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>104561.07179</v>
+        <v>103977.75897</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>7690.22005</v>
+        <v>6018.53479</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>21323.28580000001</v>
+        <v>19039.56858</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>14326.94115</v>
+        <v>12906.43153</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>13216.79053</v>
+        <v>12100.85268</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>92579.57209999999</v>
+        <v>93134.02986999998</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>27343.44133</v>
+        <v>24686.87081</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>26622.48623</v>
+        <v>18833.08824</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>61619.61645</v>
+        <v>46064.26106</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>242179.06312</v>
+        <v>216228.46709</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>45586.13877999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>33173.58215</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>134902.709</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>2471190.17031</v>
+        <v>2310008.64501</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>2765407.49441</v>
+        <v>2558560.2826</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>3565588.80154</v>
+        <v>3388381.40343</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>3930825.67448</v>
+        <v>3691568.441750001</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>4079036.28587</v>
+        <v>3818319.74275</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>4906894.63936</v>
+        <v>4768490.41162</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>5244525.29305</v>
+        <v>5788368.12505</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>7015268.60412</v>
+        <v>6990202.26899</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>8439198.030509999</v>
+        <v>8068178.033059999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>12956260.45453</v>
+        <v>12534105.32898</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>11892527.68971</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>11537084.01322</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>14951868.487</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>14055323.83182</v>
+        <v>13266434.38621</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>15213965.21709</v>
+        <v>14395893.28358</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>27674911.55968</v>
+        <v>26899630.65718</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>18631919.10428</v>
+        <v>17881552.97618</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>36005637.16196</v>
+        <v>34284996.71085</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>40216233.53837</v>
+        <v>40371648.68059999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>64370463.38572</v>
+        <v>69722931.44017</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>71566461.0024</v>
+        <v>69409950.34570999</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>110004349.49557</v>
+        <v>106688946.92077</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>288402930.14577</v>
+        <v>280481220.83581</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>171619050.40804</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>167723328.21025</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>281958902.153</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>144886.24639</v>
+        <v>141501.08688</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>159613.8122599999</v>
+        <v>152896.2841</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>177254.75915</v>
+        <v>172736.58759</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>209472.736</v>
+        <v>204224.79237</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>185875.17103</v>
+        <v>179211.41898</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>224336.95588</v>
+        <v>227684.61476</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>230251.6918</v>
+        <v>279862.44427</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>328427.5441</v>
+        <v>323418.01812</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>464710.8156500001</v>
+        <v>442661.10873</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>599926.50236</v>
+        <v>590589.89275</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1076122.58857</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1067821.63254</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>800566.602</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>1218848.18567</v>
+        <v>1148087.92517</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1082094.88524</v>
+        <v>1045515.43346</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1227651.94975</v>
+        <v>1172763.26169</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>1394943.67991</v>
+        <v>1322455.10566</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1552137.835699999</v>
+        <v>1393641.76001</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>1477902.84243</v>
+        <v>1472340.88789</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1959053.04678</v>
+        <v>2268446.385920001</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>2662926.84185</v>
+        <v>2622244.49609</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>2582547.60526</v>
+        <v>2395513.06841</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>3773057.024540001</v>
+        <v>3583487.0938</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>4010784.77825</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>3905565.157779999</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>4386351.949</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>136529.31864</v>
+        <v>131691.01656</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>131494.2511</v>
+        <v>121377.05167</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>136934.87371</v>
+        <v>113419.13673</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>421151.30906</v>
+        <v>379615.2859</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>219846.71365</v>
+        <v>211376.44356</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>420224.34634</v>
+        <v>417060.6394</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>183415.4434899999</v>
+        <v>168955.01471</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>234285.25294</v>
+        <v>231682.73085</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>307374.13666</v>
+        <v>295747.4346699999</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>2507822.51069</v>
+        <v>2507648.94662</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>2254733.34751</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>2239347.191649999</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>2034641.45</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>11085719.3576</v>
+        <v>10479367.2161</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>11879782.67156</v>
+        <v>11193976.90911</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>23589003.95872001</v>
+        <v>22986721.78433</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>14203065.97677</v>
+        <v>13612774.26906</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>30468970.21138</v>
+        <v>29032691.69765</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>34763917.38000999</v>
+        <v>34964140.14227</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>57729036.98951</v>
+        <v>63274617.13895</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>64074389.50361</v>
+        <v>61888376.42926999</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>101154875.46272</v>
+        <v>98230815.70084</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>272138733.5678499</v>
+        <v>264767990.91084</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>155560819.05075</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>151988856.21992</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>265678205.157</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>171600.02184</v>
+        <v>159537.99723</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>184579.27789</v>
+        <v>177259.7805</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>260251.39343</v>
+        <v>255692.24099</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>245370.56347</v>
+        <v>247544.50656</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>685643.49366</v>
+        <v>670087.90673</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>872223.40049</v>
+        <v>884602.82203</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>941921.1643800001</v>
+        <v>983399.7099000001</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>1298415.04205</v>
+        <v>1301195.67508</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>1484417.95471</v>
+        <v>1455884.0386</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>2699017.62806</v>
+        <v>2645853.2394</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>2465188.597159999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>2439880.963289999</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>2064336.291</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>18408.49938</v>
+        <v>17458.98932</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>30283.80848</v>
+        <v>29313.60298</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>52198.463</v>
+        <v>51145.82679</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>17313.5789</v>
+        <v>16947.33835</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>22883.44208</v>
+        <v>27561.56281</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>31975.64911</v>
+        <v>30770.60495</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>29362.74228000001</v>
+        <v>25979.73184</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>41903.34088</v>
+        <v>33240.51545</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>86366.78467000001</v>
+        <v>64396.07369999999</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>203162.0205</v>
+        <v>191370.21942</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>77769.55254</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>71086.22736</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>265546.531</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1279332.2023</v>
+        <v>1188790.15495</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1746116.51056</v>
+        <v>1675554.221760001</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>2231616.16192</v>
+        <v>2147151.81906</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>2140601.26017</v>
+        <v>2097991.67828</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>2870280.29446</v>
+        <v>2770425.92111</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>2425652.96411</v>
+        <v>2375048.9693</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>3297422.30748</v>
+        <v>2721671.01458</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>2926113.47697</v>
+        <v>3009792.48085</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>3924056.735900001</v>
+        <v>3803929.49582</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>6481210.891770001</v>
+        <v>6194280.532980001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>6173632.49326</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>6010770.81771</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>6729254.173</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>10459750.20792</v>
+        <v>9716118.757859999</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>9821384.494939998</v>
+        <v>9080007.428200001</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>19514495.1144</v>
+        <v>18037069.98851</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>12329163.60924</v>
+        <v>11815857.26582</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>23832090.60666</v>
+        <v>22851864.32082</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>21334518.03204</v>
+        <v>21402582.07874</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>29212563.77802</v>
+        <v>35674690.8076</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>39810412.62992</v>
+        <v>38349511.30784</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>50001130.63375</v>
+        <v>47909527.40837</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>117162141.27116</v>
+        <v>113702707.15387</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>82757650.36226001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>80145842.10010999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>112004084.759</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>7987310.189049999</v>
+        <v>7496177.184709999</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>7053347.56127</v>
+        <v>6603017.71147</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>13056639.64263</v>
+        <v>12376168.25082</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>9511506.258510001</v>
+        <v>9119966.800139999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>16267546.91343</v>
+        <v>15652706.18395</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>16040488.61731</v>
+        <v>15699188.16457</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>22085575.06297</v>
+        <v>24834854.91448</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>28357668.51441</v>
+        <v>27147575.94745</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>37143994.94867</v>
+        <v>35273525.43156</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>81309436.83440001</v>
+        <v>78726318.32195</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>62309189.18062</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>60117764.39450001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>77016621.612</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>2472440.01887</v>
+        <v>2219941.57315</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>2768036.93367</v>
+        <v>2476989.71673</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>6457855.47177</v>
+        <v>5660901.737689999</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>2817657.35073</v>
+        <v>2695890.465679999</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>7564543.693229999</v>
+        <v>7199158.13687</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>5294029.41473</v>
+        <v>5703393.914169999</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>7126988.715049999</v>
+        <v>10839835.89312</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>11452744.11551</v>
+        <v>11201935.36039</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>12857135.68508</v>
+        <v>12636001.97681</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>35852704.43675999</v>
+        <v>34976388.83192</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>20448461.18164</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>20028077.70561</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>34987463.147</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>15511260.54765</v>
+        <v>15543879.26563</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>19951275.7128</v>
+        <v>19813909.82552001</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>22613710.84746</v>
+        <v>23048017.42686</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>28615237.89663</v>
+        <v>28071969.97053</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>20303937.51744</v>
+        <v>20733219.62827</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>35285723.45129001</v>
+        <v>38028063.23013999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>30216583.65628</v>
+        <v>36970624.24158999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>47711369.76477</v>
+        <v>48062348.27189</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>84437627.22785001</v>
+        <v>83463854.9553</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>96620758.84757</v>
+        <v>95057929.22803</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>105758764.7913</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>98329911.32250997</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>161738437.041</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>2408685.27084</v>
+        <v>1911970.19556</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>2635894.41134</v>
+        <v>2148293.37913</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>4334862.24315</v>
+        <v>3916407.293019999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>4107087.22257</v>
+        <v>3727376.48297</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>5054817.11112</v>
+        <v>4589669.841270002</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>7101623.135310001</v>
+        <v>6595622.209549999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>6019401.59088</v>
+        <v>6708809.107310001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>8821488.18303</v>
+        <v>7839501.49131</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>9585326.647380002</v>
+        <v>8591874.35523</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>10888871.39734</v>
+        <v>10157907.50167</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>11319046.10123</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>10680691.66146</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>14136030.714</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>153884.45101</v>
+        <v>148450.09401</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>209862.52839</v>
+        <v>164866.72969</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>198693.34445</v>
+        <v>181643.05476</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>196122.78143</v>
+        <v>139785.17412</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>166073.06627</v>
+        <v>170992.80382</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>211180.13892</v>
+        <v>201534.34707</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>233252.51789</v>
+        <v>245444.76927</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>239545.76758</v>
+        <v>226674.8255</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>376536.05331</v>
+        <v>279055.99705</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>297182.22451</v>
+        <v>229797.8014499999</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>406277.04642</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>373621.47981</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1077788.106</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>2254800.81983</v>
+        <v>1763520.10155</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>2426031.88295</v>
+        <v>1983426.64944</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>4136168.8987</v>
+        <v>3734764.23826</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>3910964.44114</v>
+        <v>3587591.30885</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>4888744.04485</v>
+        <v>4418677.037449999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>6890442.996389999</v>
+        <v>6394087.862479999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>5786149.072990001</v>
+        <v>6463364.33804</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>8581942.415449999</v>
+        <v>7612826.66581</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>9208790.594070001</v>
+        <v>8312818.35818</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>10591689.17283</v>
+        <v>9928109.700220002</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>10912769.05481</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>10307070.18165</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>13058242.608</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>4179822.526</v>
+        <v>3731149.5544</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>3385266.9813</v>
+        <v>2840148.22087</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>7542511.92337</v>
+        <v>6392066.82038</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>5760931.535309999</v>
+        <v>5382963.777729999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>4908790.447609999</v>
+        <v>4587630.944020001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>6581370.801620001</v>
+        <v>6141417.351120001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>6488049.16278</v>
+        <v>6579694.5777</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>10661800.65976</v>
+        <v>9570123.03998</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>8973434.855249999</v>
+        <v>8371560.565459999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>14209240.49336</v>
+        <v>13654840.86986</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>13616331.192</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>12875283.05492</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>16856126.305</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>1868613.61946</v>
+        <v>1702451.95098</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>1155248.90843</v>
+        <v>997363.48873</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1398235.37394</v>
+        <v>1272217.91814</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1755299.05638</v>
+        <v>1660055.01742</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>1859783.02501</v>
+        <v>1771603.6579</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>1805677.54645</v>
+        <v>1751602.97006</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1927675.04832</v>
+        <v>2217794.434069999</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>2542898.28882</v>
+        <v>2495705.59726</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>3108967.23088</v>
+        <v>3010846.68498</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>3784091.74252</v>
+        <v>3652736.01083</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>5385224.72215</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>5139891.04879</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>6414103.747</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>431744.40319</v>
+        <v>402210.87069</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>426503.60093</v>
+        <v>387040.1259400001</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>874563.45409</v>
+        <v>477447.6734500001</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>732607.23968</v>
+        <v>705153.45476</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>535429.76053</v>
+        <v>523595.21062</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>608511.0674500001</v>
+        <v>593644.4802900001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>680940.26591</v>
+        <v>708504.67379</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>972553.2253199999</v>
+        <v>785297.9749500001</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>867044.9171099999</v>
+        <v>825660.5641</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1503751.22467</v>
+        <v>1451397.46654</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1343452.87528</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1303369.43917</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1450491.415</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>1879464.50335</v>
+        <v>1626486.73273</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>1803514.47194</v>
+        <v>1455744.6062</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>5269713.09534</v>
+        <v>4642401.228789999</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>3273025.239250001</v>
+        <v>3017755.30555</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>2513577.66207</v>
+        <v>2292432.075499999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>4167182.18772</v>
+        <v>3796169.90077</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>3879433.84855</v>
+        <v>3653395.469839999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>7146349.14562</v>
+        <v>6289119.467770001</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>4997422.70726</v>
+        <v>4535053.31638</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>8921397.52617</v>
+        <v>8550707.392490001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>6887653.59457</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>6432022.56696</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>8991531.142999999</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>13740123.29249</v>
+        <v>13724699.90679</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>19201903.14284001</v>
+        <v>19122054.98378</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>19406061.16724</v>
+        <v>20572357.8995</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>26961393.58389</v>
+        <v>26416382.67577</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>20449964.18095</v>
+        <v>20735258.52552</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>35805975.78498</v>
+        <v>38482268.08856999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>29747936.08438</v>
+        <v>37099738.77119999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>45871057.28803999</v>
+        <v>46331726.72322</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>85049519.01998</v>
+        <v>83684168.74507</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>93300389.75154999</v>
+        <v>91560995.85983998</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>103461479.70053</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>96135319.92905</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>159018341.45</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>2911829.52745</v>
+        <v>2856372.9992</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>3585101.18118</v>
+        <v>3519866.02837</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>4592279.19439</v>
+        <v>4500411.003200001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>4769917.92022</v>
+        <v>4697026.67329</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>4389158.363270001</v>
+        <v>4294061.928120001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>5343933.69995</v>
+        <v>5476514.92971</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>5632409.76696</v>
+        <v>6284242.89997</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>6904370.90217</v>
+        <v>6878553.77903</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>9952989.846209999</v>
+        <v>9723874.716229999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>13026260.73479</v>
+        <v>12782085.38763</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>11817549.88319</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>11546839.35281</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>19241451.322</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>10828293.76504</v>
+        <v>10868326.90759</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>15616801.96166</v>
+        <v>15602188.95541</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>14813781.97285</v>
+        <v>16071946.8963</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>22191475.66367</v>
+        <v>21719356.00248</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>16060805.81768</v>
+        <v>16441196.5974</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>30462042.08503</v>
+        <v>33005753.15886</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>24115526.31742</v>
+        <v>30815495.87123</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>38966686.38587</v>
+        <v>39453172.94419</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>75096529.17377001</v>
+        <v>73960294.02883999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>80274129.01675999</v>
+        <v>78778910.47221</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>91643929.81734</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>84588480.57623999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>139776890.128</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
+        <v>2041</v>
+      </c>
+      <c r="D59" s="35" t="n">
+        <v>2403</v>
+      </c>
+      <c r="E59" s="35" t="n">
+        <v>2952</v>
+      </c>
+      <c r="F59" s="35" t="n">
+        <v>3277</v>
+      </c>
+      <c r="G59" s="35" t="n">
+        <v>2655</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>2994</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>3342</v>
+      </c>
+      <c r="J59" s="35" t="n">
+        <v>3625</v>
+      </c>
+      <c r="K59" s="35" t="n">
+        <v>4262</v>
+      </c>
+      <c r="L59" s="35" t="n">
         <v>2603</v>
       </c>
-      <c r="D59" s="35" t="n">
-        <v>3017</v>
-      </c>
-      <c r="E59" s="35" t="n">
-        <v>3613</v>
-      </c>
-      <c r="F59" s="35" t="n">
-        <v>4028</v>
-      </c>
-      <c r="G59" s="35" t="n">
-        <v>3274</v>
-      </c>
-      <c r="H59" s="35" t="n">
-        <v>3652</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>4043</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>4643</v>
-      </c>
-      <c r="K59" s="35" t="n">
-        <v>5436</v>
-      </c>
-      <c r="L59" s="35" t="n">
-        <v>2913</v>
-      </c>
       <c r="M59" s="35" t="n">
-        <v>3067</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>2699</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>